--- a/resources/experiment 1/metrics/R2/average time/Infarto de Miocardio.xlsx
+++ b/resources/experiment 1/metrics/R2/average time/Infarto de Miocardio.xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9942534074764855</v>
+        <v>0.9935514042246122</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9942534074764855</v>
+        <v>0.9934281601580318</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9942534074764855</v>
+        <v>0.9920871004023777</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9951591338178399</v>
+        <v>0.9934653510987963</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9951591338178399</v>
+        <v>0.9939682548970614</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9951591338178399</v>
+        <v>0.9939864265416783</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.985139538563074</v>
+        <v>0.9949739930920797</v>
       </c>
       <c r="C5" t="n">
-        <v>0.985139538563074</v>
+        <v>0.9954749373589905</v>
       </c>
       <c r="D5" t="n">
-        <v>0.985139538563074</v>
+        <v>0.9959084756909334</v>
       </c>
     </row>
   </sheetData>
